--- a/Experiments/Sprint02-Exp02/Analysis/S2Ex2 Analysis.xlsx
+++ b/Experiments/Sprint02-Exp02/Analysis/S2Ex2 Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Experiments\Sprint02-Exp02\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC54D1-EA91-49E7-B051-CC720326C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C63157-5690-49E0-8088-7524F24D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
     <sheet name="1000iters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="117">
   <si>
     <t>testcase</t>
   </si>
@@ -347,19 +358,62 @@
   </si>
   <si>
     <t>4aahA_1flgB</t>
+  </si>
+  <si>
+    <t>Aligner</t>
+  </si>
+  <si>
+    <t>MAli v0.1</t>
+  </si>
+  <si>
+    <t>MAli Candidate</t>
+  </si>
+  <si>
+    <t>Alignments</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Q Score</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Time Elapsed (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -378,12 +432,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,15 +748,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N12" sqref="N12:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="15" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -706,7 +794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -722,8 +810,10 @@
       <c r="E3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -739,8 +829,10 @@
       <c r="E4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -757,7 +849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -774,7 +866,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -791,7 +883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -808,7 +900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -825,7 +917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -841,8 +933,12 @@
       <c r="E10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -858,8 +954,14 @@
       <c r="E11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -875,8 +977,18 @@
       <c r="E12">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="4">
+        <v>97</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -892,8 +1004,16 @@
       <c r="E13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -909,8 +1029,19 @@
       <c r="E14">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="4">
+        <f>AVERAGE(C:C)</f>
+        <v>3.6382100000000007E-2</v>
+      </c>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -926,8 +1057,17 @@
       <c r="E15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="4">
+        <f>MEDIAN(C:C)</f>
+        <v>1.115E-2</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -943,8 +1083,19 @@
       <c r="E16">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="4">
+        <f>AVERAGE(E:E)</f>
+        <v>55.62</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1111,17 @@
       <c r="E17">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="4">
+        <f>MEDIAN(E:E)</f>
+        <v>57</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -978,7 +1138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1223,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2390,21 +2550,34 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4FBDA2-378B-4B42-B1E5-B98D71A3062D}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="15" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2611,7 @@
         <v>26059</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2455,7 +2628,7 @@
         <v>12498</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +2645,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +2662,7 @@
         <v>8822</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2679,7 @@
         <v>81563</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2696,7 @@
         <v>57622</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2540,7 +2713,7 @@
         <v>30497</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2556,8 +2729,12 @@
       <c r="E9">
         <v>1317</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2573,8 +2750,14 @@
       <c r="E10">
         <v>1396</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2590,8 +2773,20 @@
       <c r="E11">
         <v>21075</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="4">
+        <v>97</v>
+      </c>
+      <c r="O11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2607,8 +2802,18 @@
       <c r="E12">
         <v>1266</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2624,8 +2829,21 @@
       <c r="E13">
         <v>5850</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3.6382100000000007E-2</v>
+      </c>
+      <c r="O13" s="5">
+        <f>AVERAGE(C:C)</f>
+        <v>6.4518600000000037E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2641,8 +2859,19 @@
       <c r="E14">
         <v>6003</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.115E-2</v>
+      </c>
+      <c r="O14" s="5">
+        <f>MEDIAN(C:C)</f>
+        <v>2.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2658,8 +2887,21 @@
       <c r="E15">
         <v>16857</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="5">
+        <v>55.62</v>
+      </c>
+      <c r="O15" s="4">
+        <f>AVERAGE(E:E)</f>
+        <v>18312.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2674,6 +2916,17 @@
       </c>
       <c r="E16">
         <v>1536</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="5">
+        <v>57</v>
+      </c>
+      <c r="O16" s="4">
+        <f>MEDIAN(E:E)</f>
+        <v>11314</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4122,6 +4375,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>